--- a/biology/Zoologie/Chilabothrus/Chilabothrus.xlsx
+++ b/biology/Zoologie/Chilabothrus/Chilabothrus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chilabothrus est un genre de serpents de la famille des Boidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chilabothrus est un genre de serpents de la famille des Boidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques des Antilles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques des Antilles.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (2 janvier 2022)[2] :
-Chilabothrus ampelophis Landestoy et al., 2021[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (2 janvier 2022) :
+Chilabothrus ampelophis Landestoy et al., 2021
 Chilabothrus angulifer (Bibron, 1843)
 Chilabothrus argentum (Reynolds, 2016)
 Chilabothrus chrysogaster (Cope, 1871)
@@ -584,9 +600,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été relevé de sa synonymie avec Epicrates par Reynolds, Niemiller, Hedges, Dornburg, Puente-Rolón et Revell en 2013[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été relevé de sa synonymie avec Epicrates par Reynolds, Niemiller, Hedges, Dornburg, Puente-Rolón et Revell en 2013.
 </t>
         </is>
       </c>
@@ -615,7 +633,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Duméril &amp; Bibron, 1844 : Erpétologie générale ou Histoire naturelle complète des reptiles. Librairie encyclopédique Roret, Paris, vol. 6, p. 1-609 (texte intégral).</t>
         </is>
